--- a/docs/CodeSystem-CodeSystem-local-bfdr-codes.xlsx
+++ b/docs/CodeSystem-CodeSystem-local-bfdr-codes.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="70">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-13T11:56:10-05:00</t>
+    <t>2024-02-27T09:44:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -123,7 +123,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>22</t>
+    <t>14</t>
   </si>
   <si>
     <t>Level</t>
@@ -181,54 +181,6 @@
   </si>
   <si>
     <t>Other Fetal Conditions/Disorder (Specify)</t>
-  </si>
-  <si>
-    <t>finclass_indianhealth</t>
-  </si>
-  <si>
-    <t>Indian Health Service or Tribe</t>
-  </si>
-  <si>
-    <t>finclass_medicaid</t>
-  </si>
-  <si>
-    <t>MEDICAID</t>
-  </si>
-  <si>
-    <t>finclass_nosource</t>
-  </si>
-  <si>
-    <t>No Typology Code available for payment source</t>
-  </si>
-  <si>
-    <t>finclass_othergov</t>
-  </si>
-  <si>
-    <t>Other Government (Federal, State, Local not specified)</t>
-  </si>
-  <si>
-    <t>finclass_privateinsurance</t>
-  </si>
-  <si>
-    <t>PRIVATE HEALTH INSURANCE</t>
-  </si>
-  <si>
-    <t>finclass_selfpay</t>
-  </si>
-  <si>
-    <t>Self-pay</t>
-  </si>
-  <si>
-    <t>finclass_tricare</t>
-  </si>
-  <si>
-    <t>TRICARE (CHAMPUS)</t>
-  </si>
-  <si>
-    <t>finclass_unknown</t>
-  </si>
-  <si>
-    <t>Unavailable / Unknown</t>
   </si>
   <si>
     <t>rel_fatherofbaby</t>
@@ -583,7 +535,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -767,9 +719,7 @@
       <c r="C13" t="s" s="2">
         <v>65</v>
       </c>
-      <c r="D13" t="s" s="2">
-        <v>65</v>
-      </c>
+      <c r="D13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
@@ -781,9 +731,7 @@
       <c r="C14" t="s" s="2">
         <v>67</v>
       </c>
-      <c r="D14" t="s" s="2">
-        <v>67</v>
-      </c>
+      <c r="D14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
@@ -795,115 +743,7 @@
       <c r="C15" t="s" s="2">
         <v>69</v>
       </c>
-      <c r="D15" t="s" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="C16" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D16" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="C17" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D17" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="C18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D18" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="C19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D19" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D20" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="C22" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="C23" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="D23" s="2"/>
+      <c r="D15" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/docs/CodeSystem-CodeSystem-local-bfdr-codes.xlsx
+++ b/docs/CodeSystem-CodeSystem-local-bfdr-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-27T09:44:15-05:00</t>
+    <t>2024-03-05T09:43:17-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-CodeSystem-local-bfdr-codes.xlsx
+++ b/docs/CodeSystem-CodeSystem-local-bfdr-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-05T09:43:17-05:00</t>
+    <t>2024-05-01T14:05:02-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
